--- a/Framework_Practice/src/test/java/user_data1.xlsx
+++ b/Framework_Practice/src/test/java/user_data1.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{781F3A0E-ADE9-45B1-9DF2-FE9A038533E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A3D0DE45-08DE-48B7-AEB1-A7AD107C8DF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16008" windowHeight="2124" xr2:uid="{4F59DD4F-CB20-4F13-9B11-55032289A6C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11016" windowHeight="7608" xr2:uid="{4F59DD4F-CB20-4F13-9B11-55032289A6C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N5"/>
+  <oleSize ref="A1:I24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
